--- a/shapley_values/shapley_demo.xlsx
+++ b/shapley_values/shapley_demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Communication\Talks\Shapley Values\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WDSS\opening-the-black-box\shapley_values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25918DA-03E4-4245-AA69-55DD74941FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4C8945-1B07-4BFE-8F7D-0FDC4127DFFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D5203598-626F-40BF-9781-826F762B3601}"/>
   </bookViews>
@@ -63,11 +63,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -285,26 +286,26 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
+      <numFmt numFmtId="166" formatCode="&quot;£&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -734,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02A29D5-91B9-4661-95DB-81EB3683BB67}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f>SUM(B3, C3, D3)</f>
@@ -802,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="17">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F10" si="0">SUM(B4, C4, D4)</f>
@@ -824,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -846,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="18">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -868,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="17">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -890,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="17">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -912,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="17">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -934,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="17">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -951,9 +952,9 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="19">
+      <c r="E11" s="25">
         <f>SUBTOTAL(101,Table1[Value])</f>
-        <v>133.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -963,25 +964,25 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="23">
+      <c r="B14" s="19">
         <f>((E10-E6)*G6+(E9-E5)*G5+(E8-E4)*G4+(E7-E3)*G3)</f>
-        <v>37.5</v>
-      </c>
-      <c r="C14" s="24">
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
         <f>IF(C6=1,1,-1)*(E10-E8)*G8+(E9-E7)*G7+(E6-E4)*G4+(E5-E3)*G3</f>
-        <v>7.4999999999999991</v>
-      </c>
-      <c r="D14" s="25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
         <f>IF(D6=1,1,-1)*((E10-E9)*G9+(E8-E7)*G7+(E6-E5)*G5+(E4-E3)*G3)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E14" s="4"/>
     </row>
